--- a/N2N1核心词汇.xlsx
+++ b/N2N1核心词汇.xlsx
@@ -30347,7 +30347,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
         <v>23</v>
@@ -34082,7 +34082,7 @@
         <v>732</v>
       </c>
       <c r="G148" s="43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H148" s="43" t="n">
         <v>0</v>
@@ -59361,7 +59361,7 @@
         <v>4407</v>
       </c>
       <c r="G868" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H868" s="25" t="n">
         <v>0</v>
@@ -59533,7 +59533,7 @@
         <v>0</v>
       </c>
       <c r="H873" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I873" t="s">
         <v>480</v>
@@ -60719,7 +60719,7 @@
         <v>4600</v>
       </c>
       <c r="G908" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H908" s="25" t="n">
         <v>0</v>
@@ -63818,7 +63818,7 @@
         <v>5028</v>
       </c>
       <c r="G998" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H998" s="25" t="n">
         <v>0</v>
@@ -79213,7 +79213,7 @@
         <v>0</v>
       </c>
       <c r="H1446" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1446" t="s">
         <v>2370</v>
@@ -82446,7 +82446,7 @@
         <v>0</v>
       </c>
       <c r="H1540" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1540" t="s">
         <v>480</v>

--- a/N2N1核心词汇.xlsx
+++ b/N2N1核心词汇.xlsx
@@ -35063,7 +35063,7 @@
         <v>861</v>
       </c>
       <c r="G175" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H175" s="43" t="n">
         <v>0</v>
@@ -39255,7 +39255,7 @@
         <v>1465</v>
       </c>
       <c r="G291" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H291" s="43" t="n">
         <v>0</v>
@@ -42606,7 +42606,7 @@
         <v>1</v>
       </c>
       <c r="H385" s="43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I385" t="s">
         <v>407</v>
@@ -48557,7 +48557,7 @@
         <v>2842</v>
       </c>
       <c r="G554" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H554" s="43" t="n">
         <v>1</v>
@@ -53218,7 +53218,7 @@
         <v>0</v>
       </c>
       <c r="H690" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I690" t="s">
         <v>2387</v>
@@ -57326,7 +57326,7 @@
         <v>4124</v>
       </c>
       <c r="G809" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H809" s="25" t="n">
         <v>0</v>
@@ -62022,7 +62022,7 @@
         <v>4781</v>
       </c>
       <c r="G946" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H946" s="25" t="n">
         <v>0</v>
@@ -63404,7 +63404,7 @@
         <v>4968</v>
       </c>
       <c r="G986" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H986" s="25" t="n">
         <v>0</v>
@@ -66707,7 +66707,7 @@
         <v>0</v>
       </c>
       <c r="H1082" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1082" t="s">
         <v>2471</v>
@@ -67360,7 +67360,7 @@
         <v>5512</v>
       </c>
       <c r="G1101" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1101" s="25" t="n">
         <v>0</v>
@@ -74436,7 +74436,7 @@
         <v>6478</v>
       </c>
       <c r="G1306" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1306" s="25" t="n">
         <v>0</v>
@@ -79513,7 +79513,7 @@
         <v>7169</v>
       </c>
       <c r="G1455" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1455" s="25" t="n">
         <v>0</v>
@@ -81633,7 +81633,7 @@
         <v>0</v>
       </c>
       <c r="H1516" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1516" t="s">
         <v>480</v>
@@ -83195,7 +83195,7 @@
         <v>7671</v>
       </c>
       <c r="G1562" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1562" s="25" t="n">
         <v>0</v>
@@ -83265,7 +83265,7 @@
         <v>7680</v>
       </c>
       <c r="G1564" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1564" s="25" t="n">
         <v>0</v>

--- a/N2N1核心词汇.xlsx
+++ b/N2N1核心词汇.xlsx
@@ -28837,7 +28837,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="43" t="n">
         <v>0</v>
@@ -30008,7 +30008,7 @@
         <v>22</v>
       </c>
       <c r="G37" s="43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" s="43" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>207</v>
       </c>
       <c r="G40" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="43" t="n">
         <v>0</v>
@@ -30566,7 +30566,7 @@
         <v>273</v>
       </c>
       <c r="G52" s="43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H52" s="43" t="n">
         <v>1</v>
@@ -31001,7 +31001,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
         <v>23</v>
@@ -31354,7 +31354,7 @@
         <v>374</v>
       </c>
       <c r="G74" s="43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H74" s="43" t="n">
         <v>0</v>
@@ -31389,7 +31389,7 @@
         <v>378</v>
       </c>
       <c r="G75" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" s="43" t="n">
         <v>0</v>
@@ -32128,7 +32128,7 @@
         <v>479</v>
       </c>
       <c r="G95" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" s="43" t="n">
         <v>0</v>
@@ -32920,7 +32920,7 @@
         <v>1</v>
       </c>
       <c r="H116" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="s">
         <v>37</v>
@@ -33778,7 +33778,7 @@
         <v>696</v>
       </c>
       <c r="G140" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140" s="43" t="n">
         <v>1</v>
@@ -33854,10 +33854,10 @@
         <v>22</v>
       </c>
       <c r="G142" s="43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H142" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="s">
         <v>50</v>
@@ -34012,7 +34012,7 @@
         <v>723</v>
       </c>
       <c r="G146" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" s="43" t="n">
         <v>0</v>
@@ -34082,7 +34082,7 @@
         <v>732</v>
       </c>
       <c r="G148" s="43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H148" s="43" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>22</v>
       </c>
       <c r="G149" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149" s="43" t="n">
         <v>0</v>
@@ -34307,7 +34307,7 @@
         <v>759</v>
       </c>
       <c r="G154" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154" s="43" t="n">
         <v>0</v>
@@ -34529,7 +34529,7 @@
         <v>22</v>
       </c>
       <c r="G160" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H160" s="43" t="n">
         <v>0</v>
@@ -34993,7 +34993,7 @@
         <v>850</v>
       </c>
       <c r="G173" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H173" s="43" t="n">
         <v>0</v>
@@ -35320,7 +35320,7 @@
         <v>899</v>
       </c>
       <c r="G182" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H182" s="43" t="n">
         <v>0</v>
@@ -35834,7 +35834,7 @@
         <v>968</v>
       </c>
       <c r="G196" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196" s="43" t="n">
         <v>1</v>
@@ -36062,7 +36062,7 @@
         <v>1004</v>
       </c>
       <c r="G202" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H202" s="43" t="n">
         <v>0</v>
@@ -36322,7 +36322,7 @@
         <v>1045</v>
       </c>
       <c r="G209" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209" s="43" t="n">
         <v>0</v>
@@ -36602,7 +36602,7 @@
         <v>1085</v>
       </c>
       <c r="G217" s="43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H217" s="43" t="n">
         <v>0</v>
@@ -37428,7 +37428,7 @@
         <v>1202</v>
       </c>
       <c r="G240" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H240" s="43" t="n">
         <v>0</v>
@@ -37679,7 +37679,7 @@
         <v>1237</v>
       </c>
       <c r="G247" s="43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H247" s="43" t="n">
         <v>0</v>
@@ -37749,7 +37749,7 @@
         <v>1246</v>
       </c>
       <c r="G249" s="43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H249" s="43" t="n">
         <v>0</v>
@@ -37927,7 +37927,7 @@
         <v>1</v>
       </c>
       <c r="H254" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="s">
         <v>648</v>
@@ -37997,7 +37997,7 @@
         <v>1280</v>
       </c>
       <c r="G256" s="43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H256" s="43" t="n">
         <v>0</v>
@@ -38067,7 +38067,7 @@
         <v>1290</v>
       </c>
       <c r="G258" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H258" s="43" t="n">
         <v>0</v>
@@ -38680,7 +38680,7 @@
         <v>1380</v>
       </c>
       <c r="G275" s="43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H275" s="43" t="n">
         <v>1</v>
@@ -38791,7 +38791,7 @@
         <v>1397</v>
       </c>
       <c r="G278" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H278" s="43" t="n">
         <v>0</v>
@@ -39220,7 +39220,7 @@
         <v>1460</v>
       </c>
       <c r="G290" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H290" s="43" t="n">
         <v>0</v>
@@ -39506,7 +39506,7 @@
         <v>1503</v>
       </c>
       <c r="G298" s="43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H298" s="43" t="n">
         <v>0</v>
@@ -40714,7 +40714,7 @@
         <v>1678</v>
       </c>
       <c r="G332" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H332" s="43" t="n">
         <v>0</v>
@@ -41756,7 +41756,7 @@
         <v>1833</v>
       </c>
       <c r="G361" s="43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H361" s="43" t="n">
         <v>0</v>
@@ -41829,7 +41829,7 @@
         <v>1843</v>
       </c>
       <c r="G363" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H363" s="43" t="n">
         <v>0</v>
@@ -42138,7 +42138,7 @@
         <v>1886</v>
       </c>
       <c r="G372" s="43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H372" s="43" t="n">
         <v>0</v>
@@ -42390,7 +42390,7 @@
       </c>
       <c r="F379" s="38" t="n"/>
       <c r="G379" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H379" s="43" t="n">
         <v>1</v>
@@ -42568,7 +42568,7 @@
         <v>1946</v>
       </c>
       <c r="G384" s="43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H384" s="43" t="n">
         <v>0</v>
@@ -42749,7 +42749,7 @@
         <v>1973</v>
       </c>
       <c r="G389" s="43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H389" s="43" t="n">
         <v>0</v>
@@ -43099,7 +43099,7 @@
         <v>2023</v>
       </c>
       <c r="G399" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H399" s="43" t="n">
         <v>4</v>
@@ -43204,7 +43204,7 @@
         <v>2038</v>
       </c>
       <c r="G402" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H402" s="43" t="n">
         <v>1</v>
@@ -43239,7 +43239,7 @@
         <v>2043</v>
       </c>
       <c r="G403" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H403" s="43" t="n">
         <v>0</v>
@@ -46268,7 +46268,7 @@
         <v>2487</v>
       </c>
       <c r="G488" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H488" s="43" t="n">
         <v>0</v>
@@ -46624,7 +46624,7 @@
         <v>2542</v>
       </c>
       <c r="G498" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H498" s="43" t="n">
         <v>0</v>
@@ -46904,7 +46904,7 @@
         <v>1</v>
       </c>
       <c r="H506" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I506" t="s">
         <v>2471</v>
@@ -46933,7 +46933,7 @@
         <v>2588</v>
       </c>
       <c r="G507" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H507" s="43" t="n">
         <v>0</v>
@@ -47000,7 +47000,7 @@
         <v>2598</v>
       </c>
       <c r="G509" s="43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H509" s="43" t="n">
         <v>0</v>
@@ -47659,7 +47659,7 @@
         <v>2700</v>
       </c>
       <c r="G528" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H528" s="43" t="n">
         <v>0</v>
@@ -47697,7 +47697,7 @@
         <v>1</v>
       </c>
       <c r="H529" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I529" t="s">
         <v>2376</v>
@@ -48067,7 +48067,7 @@
         <v>2765</v>
       </c>
       <c r="G540" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H540" s="43" t="n">
         <v>0</v>
@@ -48350,7 +48350,7 @@
         <v>1</v>
       </c>
       <c r="H548" s="43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I548" t="s">
         <v>2455</v>
@@ -48939,7 +48939,7 @@
         <v>1</v>
       </c>
       <c r="H565" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I565" t="s">
         <v>2471</v>
@@ -49009,7 +49009,7 @@
         <v>2913</v>
       </c>
       <c r="G567" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H567" s="43" t="n">
         <v>0</v>
@@ -49137,7 +49137,7 @@
         <v>2933</v>
       </c>
       <c r="G571" s="43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H571" s="43" t="n">
         <v>3</v>
@@ -49484,7 +49484,7 @@
         <v>2985</v>
       </c>
       <c r="G581" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H581" s="43" t="n">
         <v>0</v>
@@ -49557,7 +49557,7 @@
         <v>2997</v>
       </c>
       <c r="G583" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H583" s="43" t="n">
         <v>0</v>
@@ -50076,10 +50076,10 @@
         <v>3080</v>
       </c>
       <c r="G598" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H598" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I598" t="s">
         <v>2471</v>
@@ -52679,7 +52679,7 @@
         <v>3460</v>
       </c>
       <c r="G674" s="43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H674" s="43" t="n">
         <v>1</v>
@@ -52781,7 +52781,7 @@
         <v>1</v>
       </c>
       <c r="H677" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I677" t="s">
         <v>2387</v>
@@ -53885,7 +53885,7 @@
         <v>3640</v>
       </c>
       <c r="G710" s="43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H710" s="43" t="n">
         <v>0</v>
@@ -53923,7 +53923,7 @@
         <v>1</v>
       </c>
       <c r="H711" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I711" t="s">
         <v>2370</v>
@@ -54558,7 +54558,7 @@
         <v>3744</v>
       </c>
       <c r="G730" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H730" s="43" t="n">
         <v>1</v>
@@ -54899,7 +54899,7 @@
         <v>3795</v>
       </c>
       <c r="G740" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H740" s="43" t="n">
         <v>0</v>
@@ -55681,7 +55681,7 @@
         <v>1</v>
       </c>
       <c r="H762" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I762" t="s">
         <v>728</v>
@@ -56063,7 +56063,7 @@
         <v>3950</v>
       </c>
       <c r="G773" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H773" s="43" t="n">
         <v>0</v>
@@ -56664,7 +56664,7 @@
         <v>4030</v>
       </c>
       <c r="G790" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H790" s="43" t="n">
         <v>0</v>
@@ -57740,7 +57740,7 @@
         <v>0</v>
       </c>
       <c r="H821" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I821" t="s">
         <v>1753</v>
@@ -57775,7 +57775,7 @@
         <v>0</v>
       </c>
       <c r="H822" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I822" t="s">
         <v>2387</v>
@@ -58011,7 +58011,7 @@
         <v>4218</v>
       </c>
       <c r="G829" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H829" s="25" t="n">
         <v>0</v>
@@ -59189,7 +59189,7 @@
         <v>4385</v>
       </c>
       <c r="G863" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H863" s="25" t="n">
         <v>0</v>
@@ -59428,10 +59428,10 @@
         <v>4417</v>
       </c>
       <c r="G870" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H870" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I870" t="s">
         <v>2471</v>
@@ -59845,7 +59845,7 @@
         <v>4474</v>
       </c>
       <c r="G882" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H882" s="25" t="n">
         <v>0</v>
@@ -60789,7 +60789,7 @@
         <v>4610</v>
       </c>
       <c r="G910" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H910" s="25" t="n">
         <v>0</v>
@@ -61034,7 +61034,7 @@
         <v>4645</v>
       </c>
       <c r="G917" s="25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H917" s="25" t="n">
         <v>0</v>
@@ -61171,7 +61171,7 @@
         <v>0</v>
       </c>
       <c r="H921" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I921" t="s">
         <v>648</v>
@@ -61713,7 +61713,7 @@
         <v>4739</v>
       </c>
       <c r="G937" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H937" s="25" t="n">
         <v>0</v>
@@ -61885,7 +61885,7 @@
         <v>4763</v>
       </c>
       <c r="G942" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H942" s="25" t="n">
         <v>0</v>
@@ -62194,7 +62194,7 @@
         <v>0</v>
       </c>
       <c r="H951" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I951" t="s">
         <v>728</v>
@@ -62398,7 +62398,7 @@
         <v>4833</v>
       </c>
       <c r="G957" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H957" s="25" t="n">
         <v>0</v>
@@ -62920,7 +62920,7 @@
         <v>4904</v>
       </c>
       <c r="G972" s="25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H972" s="25" t="n">
         <v>0</v>
@@ -63299,10 +63299,10 @@
         <v>4954</v>
       </c>
       <c r="G983" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H983" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I983" t="s">
         <v>480</v>
@@ -63649,7 +63649,7 @@
         <v>0</v>
       </c>
       <c r="H993" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I993" t="s">
         <v>480</v>
@@ -63894,7 +63894,7 @@
         <v>5040</v>
       </c>
       <c r="G1000" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1000" s="25" t="n">
         <v>0</v>
@@ -64098,7 +64098,7 @@
         <v>5067</v>
       </c>
       <c r="G1006" s="25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1006" s="25" t="n">
         <v>0</v>
@@ -64410,7 +64410,7 @@
         <v>5112</v>
       </c>
       <c r="G1015" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1015" s="25" t="n">
         <v>0</v>
@@ -64716,7 +64716,7 @@
         <v>5155</v>
       </c>
       <c r="G1024" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1024" s="25" t="n">
         <v>0</v>
@@ -64751,7 +64751,7 @@
         <v>5160</v>
       </c>
       <c r="G1025" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1025" s="25" t="n">
         <v>0</v>
@@ -65728,7 +65728,7 @@
         <v>5289</v>
       </c>
       <c r="G1053" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1053" s="25" t="n">
         <v>0</v>
@@ -65932,7 +65932,7 @@
         <v>5315</v>
       </c>
       <c r="G1059" s="25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1059" s="25" t="n">
         <v>0</v>
@@ -67258,7 +67258,7 @@
         <v>5498</v>
       </c>
       <c r="G1098" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1098" s="25" t="n">
         <v>0</v>
@@ -67293,10 +67293,10 @@
         <v>5502</v>
       </c>
       <c r="G1099" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1099" s="25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="s">
         <v>2455</v>
@@ -68206,7 +68206,7 @@
         <v>0</v>
       </c>
       <c r="H1125" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1125" t="s">
         <v>648</v>
@@ -68760,7 +68760,7 @@
         <v>5699</v>
       </c>
       <c r="G1141" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1141" s="25" t="n">
         <v>0</v>
@@ -68836,7 +68836,7 @@
         <v>5714</v>
       </c>
       <c r="G1143" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1143" s="25" t="n">
         <v>0</v>
@@ -69451,7 +69451,7 @@
         <v>5794</v>
       </c>
       <c r="G1161" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1161" s="25" t="n">
         <v>0</v>
@@ -69521,10 +69521,10 @@
         <v>5803</v>
       </c>
       <c r="G1163" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1163" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1163" t="s">
         <v>2376</v>
@@ -69591,7 +69591,7 @@
         <v>0</v>
       </c>
       <c r="H1165" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1165" t="s">
         <v>89</v>
@@ -71314,7 +71314,7 @@
         <v>6043</v>
       </c>
       <c r="G1215" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1215" s="25" t="n">
         <v>0</v>
@@ -71597,7 +71597,7 @@
         <v>0</v>
       </c>
       <c r="H1223" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1223" t="s">
         <v>480</v>
@@ -72107,7 +72107,7 @@
         <v>6155</v>
       </c>
       <c r="G1238" s="25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1238" s="25" t="n">
         <v>0</v>
@@ -72588,7 +72588,7 @@
         <v>6222</v>
       </c>
       <c r="G1252" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1252" s="25" t="n">
         <v>0</v>
@@ -72623,7 +72623,7 @@
         <v>6227</v>
       </c>
       <c r="G1253" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1253" s="25" t="n">
         <v>0</v>
@@ -73037,7 +73037,7 @@
         <v>0</v>
       </c>
       <c r="H1265" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1265" t="s">
         <v>407</v>
@@ -73445,7 +73445,7 @@
         <v>6340</v>
       </c>
       <c r="G1277" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1277" s="25" t="n">
         <v>0</v>
@@ -73757,7 +73757,7 @@
         <v>6384</v>
       </c>
       <c r="G1286" s="25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1286" s="25" t="n">
         <v>0</v>
@@ -74401,7 +74401,7 @@
         <v>6473</v>
       </c>
       <c r="G1305" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1305" s="25" t="n">
         <v>0</v>
@@ -74564,7 +74564,7 @@
         <v>6495</v>
       </c>
       <c r="G1310" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1310" s="25" t="n">
         <v>0</v>
@@ -74774,7 +74774,7 @@
         <v>6526</v>
       </c>
       <c r="G1316" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1316" s="25" t="n">
         <v>0</v>
@@ -75083,7 +75083,7 @@
         <v>6568</v>
       </c>
       <c r="G1325" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1325" s="25" t="n">
         <v>0</v>
@@ -75182,7 +75182,7 @@
         <v>6578</v>
       </c>
       <c r="G1328" s="25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1328" s="25" t="n">
         <v>0</v>
@@ -75319,7 +75319,7 @@
         <v>6597</v>
       </c>
       <c r="G1332" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1332" s="25" t="n">
         <v>0</v>
@@ -75660,7 +75660,7 @@
         <v>6646</v>
       </c>
       <c r="G1342" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1342" s="25" t="n">
         <v>0</v>
@@ -76135,7 +76135,7 @@
         <v>6715</v>
       </c>
       <c r="G1356" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1356" s="25" t="n">
         <v>0</v>
@@ -76409,7 +76409,7 @@
         <v>6751</v>
       </c>
       <c r="G1364" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1364" s="25" t="n">
         <v>0</v>
@@ -76610,7 +76610,7 @@
         <v>6774</v>
       </c>
       <c r="G1370" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1370" s="25" t="n">
         <v>0</v>
@@ -79143,7 +79143,7 @@
         <v>0</v>
       </c>
       <c r="H1444" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1444" t="s">
         <v>480</v>
@@ -79968,7 +79968,7 @@
         <v>7232</v>
       </c>
       <c r="G1468" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1468" s="25" t="n">
         <v>0</v>
@@ -80137,7 +80137,7 @@
         <v>7255</v>
       </c>
       <c r="G1473" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1473" s="25" t="n">
         <v>0</v>
@@ -80455,7 +80455,7 @@
         <v>7299</v>
       </c>
       <c r="G1482" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1482" s="25" t="n">
         <v>0</v>
@@ -80901,7 +80901,7 @@
         <v>7362</v>
       </c>
       <c r="G1495" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1495" s="25" t="n">
         <v>0</v>
@@ -81181,7 +81181,7 @@
         <v>7399</v>
       </c>
       <c r="G1503" s="25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1503" s="25" t="n">
         <v>0</v>
@@ -81630,7 +81630,7 @@
         <v>7458</v>
       </c>
       <c r="G1516" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1516" s="25" t="n">
         <v>1</v>
@@ -81869,7 +81869,7 @@
         <v>7489</v>
       </c>
       <c r="G1523" s="25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1523" s="25" t="n">
         <v>0</v>
@@ -82545,7 +82545,7 @@
         <v>7582</v>
       </c>
       <c r="G1543" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1543" s="25" t="n">
         <v>0</v>
@@ -82845,7 +82845,7 @@
         <v>7624</v>
       </c>
       <c r="G1552" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1552" s="25" t="n">
         <v>0</v>
@@ -83440,7 +83440,7 @@
         <v>7705</v>
       </c>
       <c r="G1569" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1569" s="25" t="n">
         <v>0</v>
@@ -83615,7 +83615,7 @@
         <v>7727</v>
       </c>
       <c r="G1574" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1574" s="25" t="n">
         <v>0</v>
@@ -83956,7 +83956,7 @@
         <v>1065</v>
       </c>
       <c r="G1584" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1584" s="25" t="n">
         <v>0</v>
@@ -84376,7 +84376,7 @@
         <v>0</v>
       </c>
       <c r="H1596" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1596" t="s">
         <v>2376</v>
@@ -84679,7 +84679,7 @@
         <v>7864</v>
       </c>
       <c r="G1605" s="25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1605" s="25" t="n">
         <v>0</v>
